--- a/1.xlsx
+++ b/1.xlsx
@@ -1,102 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="15600" windowHeight="9735"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="3">
   <si>
-    <t>A1</t>
+    <t>a1</t>
   </si>
   <si>
-    <t>A2</t>
+    <t>b1</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>C4</t>
+    <t>c2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yy;@"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,55 +57,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="Comma 2" xfId="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 5" xfId="6"/>
-    <cellStyle name="Normal 6" xfId="7"/>
-    <cellStyle name="Normal 7" xfId="8"/>
-    <cellStyle name="Normal 8" xfId="9"/>
-    <cellStyle name="Normal 9" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -463,96 +363,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.75" style="1"/>
-    <col min="2" max="2" width="10.75" style="2"/>
-    <col min="3" max="16384" width="10.75" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="6"/>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.2" right="0.2" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="4">
   <si>
     <t>a1</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>c2</t>
+  </si>
+  <si>
+    <t>d1</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,6 +542,514 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>2</v>
       </c>
     </row>
